--- a/Unity/Assets/Config/Excel/StartConfig/Release_Zpb/StartZoneConfig.xlsx
+++ b/Unity/Assets/Config/Excel/StartConfig/Release_Zpb/StartZoneConfig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11213"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/icepower/Work/Projects/My/X-ET7/Unity/Assets/Config/LubanExcel/Datas/StartConfig/Localhost/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\work\ARTowerDefense\Unity\Assets\Config\Excel\StartConfig\Release_Zpb\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32A42795-C8ED-DB46-8B75-18EE0EB854D9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CD2700A-3A4E-4512-AF04-B1450C5FD9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="6680" yWindow="11260" windowWidth="21740" windowHeight="13680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="11964" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="StartZoneConfig" sheetId="1" r:id="rId1"/>
@@ -55,34 +55,35 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
+    <t>数据库地址</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>数据库名</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>Desc</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>说明</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>游戏区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>机器人区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>路由区</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
     <t>mongodb://127.0.0.1</t>
-  </si>
-  <si>
-    <t>数据库地址</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>数据库名</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>Desc</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>说明</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>游戏区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>机器人区</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
-    <t>路由区</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -90,7 +91,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -506,19 +507,19 @@
   <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="131" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="14"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.2" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" style="2" customWidth="1"/>
+    <col min="1" max="1" width="21.109375" style="2" customWidth="1"/>
     <col min="2" max="2" width="12.6640625" style="3" customWidth="1"/>
-    <col min="3" max="3" width="17.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.44140625" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="21" style="3" customWidth="1"/>
     <col min="6" max="16384" width="9" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="7" customFormat="1" ht="16">
+    <row r="1" spans="1:6" s="7" customFormat="1" ht="16.2" x14ac:dyDescent="0.3">
       <c r="A1" s="7" t="s">
         <v>3</v>
       </c>
@@ -532,11 +533,11 @@
         <v>1</v>
       </c>
       <c r="E1" s="8" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="F1" s="6"/>
     </row>
-    <row r="2" spans="1:6" s="9" customFormat="1">
+    <row r="2" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A2" s="9" t="s">
         <v>4</v>
       </c>
@@ -553,7 +554,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="7" customFormat="1">
+    <row r="3" spans="1:6" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A3" s="7" t="s">
         <v>5</v>
       </c>
@@ -561,44 +562,44 @@
         <v>6</v>
       </c>
       <c r="C3" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="8" t="s">
         <v>10</v>
       </c>
-      <c r="D3" s="8" t="s">
-        <v>11</v>
-      </c>
       <c r="E3" s="8" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B4" s="3">
         <v>1</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>2</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="B5" s="3">
         <v>2</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F5" s="5"/>
     </row>
-    <row r="6" spans="1:6" s="1" customFormat="1">
+    <row r="6" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B6" s="4">
         <v>3</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
   </sheetData>
